--- a/student_overzicht/toevoegen/Intake_Ronde_Velden.xlsx
+++ b/student_overzicht/toevoegen/Intake_Ronde_Velden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/87248/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B261216-3F85-4944-B076-A1BB6CE1308D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F98D45-3293-9F40-9E88-5FB1AA7F8A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1980" windowWidth="36500" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="3100" windowWidth="36500" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>ref.nr</t>
   </si>
@@ -95,21 +95,12 @@
     <t>Y</t>
   </si>
   <si>
-    <t>vanwege holte-ontstekingen regelmatig online onderwijs gevolgd</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>positief</t>
   </si>
   <si>
     <t>posifief</t>
   </si>
   <si>
-    <t>chronische holte-ontsteking</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -120,6 +111,12 @@
   </si>
   <si>
     <t>van den</t>
+  </si>
+  <si>
+    <t>Reden</t>
+  </si>
+  <si>
+    <t>Opmerking</t>
   </si>
 </sst>
 </file>
@@ -522,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -606,19 +603,19 @@
         <v>12345</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3">
         <v>38701</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -636,23 +633,25 @@
         <v>20</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -664,6 +663,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="db8c7a02-01a0-404c-a364-40e187a2a20b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8831e812-5632-4d40-b0bb-3f7bfd38043f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C73A1AA98020884CBC9BD26150E245E6" ma:contentTypeVersion="9" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c6908f2d26812d7124376e8c5ebedf29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db8c7a02-01a0-404c-a364-40e187a2a20b" xmlns:ns3="8831e812-5632-4d40-b0bb-3f7bfd38043f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="70ad61e2051e6b94fb192cafeaeded1d" ns2:_="" ns3:_="">
     <xsd:import namespace="db8c7a02-01a0-404c-a364-40e187a2a20b"/>
@@ -846,27 +865,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="db8c7a02-01a0-404c-a364-40e187a2a20b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8831e812-5632-4d40-b0bb-3f7bfd38043f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB7963C9-5AF8-406C-AD54-2AB1AEDDCF80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C14F4F2-C971-44BF-9D68-05414289B01E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="db8c7a02-01a0-404c-a364-40e187a2a20b"/>
+    <ds:schemaRef ds:uri="8831e812-5632-4d40-b0bb-3f7bfd38043f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E46791A-F0AD-48CF-B6FF-6B8E9423DD05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -883,23 +901,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C14F4F2-C971-44BF-9D68-05414289B01E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="db8c7a02-01a0-404c-a364-40e187a2a20b"/>
-    <ds:schemaRef ds:uri="8831e812-5632-4d40-b0bb-3f7bfd38043f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB7963C9-5AF8-406C-AD54-2AB1AEDDCF80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>